--- a/data/case1/18/Qlm1_2.xlsx
+++ b/data/case1/18/Qlm1_2.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.28013860671403279</v>
+        <v>-0.24293860647387078</v>
       </c>
       <c r="B1" s="0">
-        <v>0.27938377088540989</v>
+        <v>0.24227317640985291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.15975282414587078</v>
+        <v>-0.17643889223892728</v>
       </c>
       <c r="B2" s="0">
-        <v>0.15824189784960385</v>
+        <v>0.17461860144539543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.10852380020507368</v>
+        <v>-0.12489862475423408</v>
       </c>
       <c r="B3" s="0">
-        <v>0.10808051654361783</v>
+        <v>0.12430698788621442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.10008051660631523</v>
+        <v>-0.11630698792661498</v>
       </c>
       <c r="B4" s="0">
-        <v>0.099685808255676633</v>
+        <v>0.11576870106182469</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.096685808291249842</v>
+        <v>-0.11276870108592529</v>
       </c>
       <c r="B5" s="0">
-        <v>0.095350940214892432</v>
+        <v>0.11093069941905132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.021169561180093055</v>
+        <v>-0.052743791262694018</v>
       </c>
       <c r="B6" s="0">
-        <v>0.020975628576326955</v>
+        <v>0.052125655486879197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0060641200439914833</v>
+        <v>-0.042125655545563578</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0060466721981788929</v>
+        <v>0.041969687277267909</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0039533277155139324</v>
+        <v>-0.031969687337991992</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0039622609706602141</v>
+        <v>0.031676491633244375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0059622609347873556</v>
+        <v>-0.029676491665536098</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0059662431747820044</v>
+        <v>0.029430142313080054</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0079662431403288991</v>
+        <v>-0.027430142347501629</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.00796585275432804</v>
+        <v>0.027413225340627179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024393522399488887</v>
+        <v>-0.024413225379130488</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024367158386944254</v>
+        <v>0.024385288048343945</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020867158431319588</v>
+        <v>-0.020885288089329546</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020671589054993333</v>
+        <v>0.020680462168908065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.01717158910208294</v>
+        <v>-0.017180462212100345</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017082622826260163</v>
+        <v>0.01708706853581976</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.009082622901587456</v>
+        <v>-0.009087068596918435</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090536328162080792</v>
+        <v>0.0090564476625312196</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.008053632848807446</v>
+        <v>-0.0080564476970916843</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080349209853949333</v>
+        <v>0.0080366634581743313</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060349210245775886</v>
+        <v>-0.0060366634969679644</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060034609305121833</v>
+        <v>0.006003779790713093</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040034609701136148</v>
+        <v>-0.004003779830023646</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999479176651</v>
+        <v>0.0039999999528044228</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.11363094677864893</v>
+        <v>-0.029719983353512447</v>
       </c>
       <c r="B18" s="0">
-        <v>0.11329085398714867</v>
+        <v>0.029679483905905357</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.079701662562571496</v>
+        <v>-0.025679483922766533</v>
       </c>
       <c r="B19" s="0">
-        <v>0.078280125297538916</v>
+        <v>0.025413744550709882</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.074280125339329928</v>
+        <v>-0.008017068953023454</v>
       </c>
       <c r="B20" s="0">
-        <v>0.073851892523400409</v>
+        <v>0.008005718968771447</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.06985189256849722</v>
+        <v>-0.0040057189881821387</v>
       </c>
       <c r="B21" s="0">
-        <v>0.069142158164349432</v>
+        <v>0.0039999999804347652</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045718097678950187</v>
+        <v>-0.045719976713353816</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045503047084381798</v>
+        <v>0.045504178974223208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040503047127064207</v>
+        <v>-0.040504179001483287</v>
       </c>
       <c r="B23" s="0">
-        <v>0.04009978908934908</v>
+        <v>0.040100089208925382</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099789228017251</v>
+        <v>-0.020100089296197332</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999859378725</v>
+        <v>0.019999999911560984</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.072181379072130625</v>
+        <v>-0.056186908183653017</v>
       </c>
       <c r="B25" s="0">
-        <v>0.07211630208709785</v>
+        <v>0.056151268951049715</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.069616302128700625</v>
+        <v>-0.053651268980898337</v>
       </c>
       <c r="B26" s="0">
-        <v>0.069534599549740506</v>
+        <v>0.053608216882031101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.067034599593231103</v>
+        <v>-0.051108216912754134</v>
       </c>
       <c r="B27" s="0">
-        <v>0.066562786987883094</v>
+        <v>0.050869249410070871</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.064562787036096303</v>
+        <v>-0.048869249442774709</v>
       </c>
       <c r="B28" s="0">
-        <v>0.064251145173534141</v>
+        <v>0.04871744571833414</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081361225825773431</v>
+        <v>-0.041717445773058692</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081173062576840316</v>
+        <v>0.041682425136279733</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021173062992043246</v>
+        <v>0.018317574603930797</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021023345765736057</v>
+        <v>-0.01834130520180155</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023345857408387</v>
+        <v>-0.014023717826574966</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001142489650675</v>
+        <v>0.014001351670700046</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.004001142600120744</v>
+        <v>-0.0040013517374859475</v>
       </c>
       <c r="B32" s="0">
-        <v>0.003999999926362463</v>
+        <v>0.0039999999561963762</v>
       </c>
     </row>
   </sheetData>
